--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gnas-Vipr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gnas-Vipr1.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>84.76851766666665</v>
+        <v>95.63567833333333</v>
       </c>
       <c r="H2">
-        <v>254.305553</v>
+        <v>286.907035</v>
       </c>
       <c r="I2">
-        <v>0.2571740874301185</v>
+        <v>0.2808828217467972</v>
       </c>
       <c r="J2">
-        <v>0.2571740874301185</v>
+        <v>0.2808828217467972</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.802565333333333</v>
+        <v>1.372179</v>
       </c>
       <c r="N2">
-        <v>5.407696</v>
+        <v>4.116537</v>
       </c>
       <c r="O2">
-        <v>0.3083214936279398</v>
+        <v>0.2533567233062949</v>
       </c>
       <c r="P2">
-        <v>0.3083214936279398</v>
+        <v>0.2533567233062949</v>
       </c>
       <c r="Q2">
-        <v>152.8007913039875</v>
+        <v>131.229269459755</v>
       </c>
       <c r="R2">
-        <v>1375.207121735888</v>
+        <v>1181.063425137795</v>
       </c>
       <c r="S2">
-        <v>0.0792922987588565</v>
+        <v>0.07116355135079466</v>
       </c>
       <c r="T2">
-        <v>0.07929229875885653</v>
+        <v>0.07116355135079468</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>84.76851766666665</v>
+        <v>95.63567833333333</v>
       </c>
       <c r="H3">
-        <v>254.305553</v>
+        <v>286.907035</v>
       </c>
       <c r="I3">
-        <v>0.2571740874301185</v>
+        <v>0.2808828217467972</v>
       </c>
       <c r="J3">
-        <v>0.2571740874301185</v>
+        <v>0.2808828217467972</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.190375</v>
       </c>
       <c r="O3">
-        <v>0.01085429069041955</v>
+        <v>0.01171683533985869</v>
       </c>
       <c r="P3">
-        <v>0.01085429069041955</v>
+        <v>0.0117168353398587</v>
       </c>
       <c r="Q3">
-        <v>5.379268850263887</v>
+        <v>6.06888075423611</v>
       </c>
       <c r="R3">
-        <v>48.41341965237499</v>
+        <v>54.619926788125</v>
       </c>
       <c r="S3">
-        <v>0.002791442303009878</v>
+        <v>0.003291057772202103</v>
       </c>
       <c r="T3">
-        <v>0.002791442303009879</v>
+        <v>0.003291057772202104</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>84.76851766666665</v>
+        <v>95.63567833333333</v>
       </c>
       <c r="H4">
-        <v>254.305553</v>
+        <v>286.907035</v>
       </c>
       <c r="I4">
-        <v>0.2571740874301185</v>
+        <v>0.2808828217467972</v>
       </c>
       <c r="J4">
-        <v>0.2571740874301185</v>
+        <v>0.2808828217467972</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.980358666666667</v>
+        <v>3.980358666666666</v>
       </c>
       <c r="N4">
         <v>11.941076</v>
       </c>
       <c r="O4">
-        <v>0.6808242156816406</v>
+        <v>0.7349264413538463</v>
       </c>
       <c r="P4">
-        <v>0.6808242156816406</v>
+        <v>0.7349264413538463</v>
       </c>
       <c r="Q4">
-        <v>337.4091039550031</v>
+        <v>380.6643010966288</v>
       </c>
       <c r="R4">
-        <v>3036.681935595028</v>
+        <v>3425.97870986966</v>
       </c>
       <c r="S4">
-        <v>0.1750903463682521</v>
+        <v>0.2064282126238004</v>
       </c>
       <c r="T4">
-        <v>0.1750903463682521</v>
+        <v>0.2064282126238005</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>401.04908</v>
       </c>
       <c r="I5">
-        <v>0.4055728628296552</v>
+        <v>0.392628215788982</v>
       </c>
       <c r="J5">
-        <v>0.4055728628296552</v>
+        <v>0.392628215788982</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.802565333333333</v>
+        <v>1.372179</v>
       </c>
       <c r="N5">
-        <v>5.407696</v>
+        <v>4.116537</v>
       </c>
       <c r="O5">
-        <v>0.3083214936279398</v>
+        <v>0.2533567233062949</v>
       </c>
       <c r="P5">
-        <v>0.3083214936279398</v>
+        <v>0.2533567233062949</v>
       </c>
       <c r="Q5">
-        <v>240.9723895244089</v>
+        <v>183.43704184844</v>
       </c>
       <c r="R5">
-        <v>2168.75150571968</v>
+        <v>1650.93337663596</v>
       </c>
       <c r="S5">
-        <v>0.1250468308425988</v>
+        <v>0.09947499822989338</v>
       </c>
       <c r="T5">
-        <v>0.1250468308425988</v>
+        <v>0.09947499822989338</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>401.04908</v>
       </c>
       <c r="I6">
-        <v>0.4055728628296552</v>
+        <v>0.392628215788982</v>
       </c>
       <c r="J6">
-        <v>0.4055728628296552</v>
+        <v>0.392628215788982</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +806,10 @@
         <v>0.190375</v>
       </c>
       <c r="O6">
-        <v>0.01085429069041955</v>
+        <v>0.01171683533985869</v>
       </c>
       <c r="P6">
-        <v>0.01085429069041955</v>
+        <v>0.0117168353398587</v>
       </c>
       <c r="Q6">
         <v>8.483302067222223</v>
@@ -818,10 +818,10 @@
         <v>76.34971860499999</v>
       </c>
       <c r="S6">
-        <v>0.004402205749298731</v>
+        <v>0.00460036015418201</v>
       </c>
       <c r="T6">
-        <v>0.004402205749298732</v>
+        <v>0.00460036015418201</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>401.04908</v>
       </c>
       <c r="I7">
-        <v>0.4055728628296552</v>
+        <v>0.392628215788982</v>
       </c>
       <c r="J7">
-        <v>0.4055728628296552</v>
+        <v>0.392628215788982</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.980358666666667</v>
+        <v>3.980358666666666</v>
       </c>
       <c r="N7">
         <v>11.941076</v>
       </c>
       <c r="O7">
-        <v>0.6808242156816406</v>
+        <v>0.7349264413538463</v>
       </c>
       <c r="P7">
-        <v>0.6808242156816406</v>
+        <v>0.7349264413538463</v>
       </c>
       <c r="Q7">
-        <v>532.1063937788979</v>
+        <v>532.1063937788978</v>
       </c>
       <c r="R7">
-        <v>4788.957544010081</v>
+        <v>4788.95754401008</v>
       </c>
       <c r="S7">
-        <v>0.2761238262377576</v>
+        <v>0.2885528574049066</v>
       </c>
       <c r="T7">
-        <v>0.2761238262377576</v>
+        <v>0.2885528574049066</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>333.49131</v>
       </c>
       <c r="I8">
-        <v>0.3372530497402263</v>
+        <v>0.3264889624642208</v>
       </c>
       <c r="J8">
-        <v>0.3372530497402264</v>
+        <v>0.3264889624642208</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.802565333333333</v>
+        <v>1.372179</v>
       </c>
       <c r="N8">
-        <v>5.407696</v>
+        <v>4.116537</v>
       </c>
       <c r="O8">
-        <v>0.3083214936279398</v>
+        <v>0.2533567233062949</v>
       </c>
       <c r="P8">
-        <v>0.3083214936279398</v>
+        <v>0.2533567233062949</v>
       </c>
       <c r="Q8">
-        <v>200.37995812464</v>
+        <v>152.53659075483</v>
       </c>
       <c r="R8">
-        <v>1803.41962312176</v>
+        <v>1372.82931679347</v>
       </c>
       <c r="S8">
-        <v>0.1039823640264844</v>
+        <v>0.0827181737256069</v>
       </c>
       <c r="T8">
-        <v>0.1039823640264845</v>
+        <v>0.08271817372560691</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>333.49131</v>
       </c>
       <c r="I9">
-        <v>0.3372530497402263</v>
+        <v>0.3264889624642208</v>
       </c>
       <c r="J9">
-        <v>0.3372530497402264</v>
+        <v>0.3264889624642208</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,10 +992,10 @@
         <v>0.190375</v>
       </c>
       <c r="O9">
-        <v>0.01085429069041955</v>
+        <v>0.01171683533985869</v>
       </c>
       <c r="P9">
-        <v>0.01085429069041955</v>
+        <v>0.0117168353398587</v>
       </c>
       <c r="Q9">
         <v>7.054267571249999</v>
@@ -1004,10 +1004,10 @@
         <v>63.48840814125</v>
       </c>
       <c r="S9">
-        <v>0.003660642638110939</v>
+        <v>0.00382541741347458</v>
       </c>
       <c r="T9">
-        <v>0.00366064263811094</v>
+        <v>0.003825417413474582</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>333.49131</v>
       </c>
       <c r="I10">
-        <v>0.3372530497402263</v>
+        <v>0.3264889624642208</v>
       </c>
       <c r="J10">
-        <v>0.3372530497402264</v>
+        <v>0.3264889624642208</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.980358666666667</v>
+        <v>3.980358666666666</v>
       </c>
       <c r="N10">
         <v>11.941076</v>
       </c>
       <c r="O10">
-        <v>0.6808242156816406</v>
+        <v>0.7349264413538463</v>
       </c>
       <c r="P10">
-        <v>0.6808242156816406</v>
+        <v>0.7349264413538463</v>
       </c>
       <c r="Q10">
-        <v>442.47167533884</v>
+        <v>442.4716753388399</v>
       </c>
       <c r="R10">
         <v>3982.24507804956</v>
       </c>
       <c r="S10">
-        <v>0.2296100430756309</v>
+        <v>0.2399453713251393</v>
       </c>
       <c r="T10">
-        <v>0.2296100430756309</v>
+        <v>0.2399453713251393</v>
       </c>
     </row>
   </sheetData>
